--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Snehal Patil\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,7 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -235,41 +231,41 @@
     <t>Delhi Value Added Tax Act, 2004</t>
   </si>
   <si>
-    <t>MrSawant,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A pvt ltd</t>
-  </si>
-  <si>
-    <t>performer@avantis.info</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
+    <t>2022-2023</t>
+  </si>
+  <si>
+    <t>15-02-2023</t>
+  </si>
+  <si>
+    <t>21-jun-2023</t>
+  </si>
+  <si>
+    <t>Test test</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>24-07-2023</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karnataka Pvt Ltdd</t>
+  </si>
+  <si>
+    <t>ayush.tripathi@tlregtech.in</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-performer@avantis.info</t>
-  </si>
-  <si>
-    <t>2022-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
-  </si>
-  <si>
-    <t>21-jun-2023</t>
-  </si>
-  <si>
-    <t>Test test</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>24-07-2023</t>
-  </si>
-  <si>
-    <t>Test Fee</t>
+ayush.tripathi@tlregtech.in</t>
+  </si>
+  <si>
+    <t>checks</t>
   </si>
 </sst>
 </file>
@@ -896,7 +892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1062,7 +1058,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>548724</v>
+        <v>654564</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1080,16 +1076,16 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1107,10 +1103,10 @@
         <v>2023</v>
       </c>
       <c r="AD2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1119,10 +1115,10 @@
         <v>39</v>
       </c>
       <c r="AJ2" s="33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1135,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,28 +1182,28 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>548724</v>
+        <v>654564</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F2" s="34">
         <v>7634563</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H2" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" s="34"/>
     </row>
@@ -1222,7 +1218,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1266,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>548724</v>
+        <v>654564</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -892,7 +891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1058,7 +1057,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>654564</v>
+        <v>789567</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1134,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1182,7 +1181,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>654564</v>
+        <v>789567</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>49</v>
@@ -1217,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1265,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>654564</v>
+        <v>789567</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>789567</v>
+        <v>5634634</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1133,7 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>789567</v>
+        <v>5634634</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>49</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>789567</v>
+        <v>5634634</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>5634634</v>
+        <v>452300879</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>5634634</v>
+        <v>452300879</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>49</v>
@@ -1216,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>5634634</v>
+        <v>452300879</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -254,17 +254,18 @@
     <t>Deepali Dev</t>
   </si>
   <si>
-    <t xml:space="preserve"> Karnataka Pvt Ltdd</t>
-  </si>
-  <si>
-    <t>ayush.tripathi@tlregtech.in</t>
+    <t>checks</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-ayush.tripathi@tlregtech.in</t>
-  </si>
-  <si>
-    <t>checks</t>
+companyadmin@avantis.info</t>
   </si>
 </sst>
 </file>
@@ -499,13 +500,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -891,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE10" sqref="AE8:AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,7 +1052,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1057,7 +1060,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>452300879</v>
+        <v>8245674</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
@@ -1078,13 +1081,13 @@
         <v>76</v>
       </c>
       <c r="K2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>78</v>
+      <c r="P2" s="35" t="s">
+        <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1104,8 +1107,8 @@
       <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AE2" s="32" t="s">
-        <v>79</v>
+      <c r="AE2" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1113,7 +1116,7 @@
       <c r="AI2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>70</v>
       </c>
       <c r="AL2" t="s">
@@ -1122,7 +1125,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="P2" r:id="rId1" display="ayush.tripathi@tlregtech.in"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1134,7 +1137,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,9 +1184,9 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>452300879</v>
-      </c>
-      <c r="B2" s="34" t="s">
+        <v>8245674</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="25" t="s">
@@ -1195,16 +1198,16 @@
       <c r="E2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="34">
-        <v>7634563</v>
-      </c>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="33">
+        <v>6734563</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="34"/>
+      <c r="I2" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1216,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>452300879</v>
+        <v>8245674</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>
@@ -1275,7 +1278,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>Test2</t>
-  </si>
-  <si>
-    <t>24-07-2023</t>
   </si>
   <si>
     <t>Deepali Dev</t>
@@ -266,6 +263,12 @@
   <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>Notice300623</t>
+  </si>
+  <si>
+    <t>24-09-2023</t>
   </si>
 </sst>
 </file>
@@ -894,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE10" sqref="AE8:AE10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,10 +1063,10 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>8245674</v>
+        <v>7654340989</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>67</v>
@@ -1078,16 +1081,16 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1108,7 +1111,7 @@
         <v>69</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1137,7 +1140,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1187,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>8245674</v>
+        <v>7654340989</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1205,7 +1208,7 @@
         <v>73</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -1219,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>8245674</v>
+        <v>7654340989</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>
@@ -1278,7 +1281,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1063,7 +1063,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>7654340989</v>
+        <v>87654345</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>7654340989</v>
+        <v>87654345</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1222,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>7654340989</v>
+        <v>87654345</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -898,7 +898,7 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>87654345</v>
+        <v>257257</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>87654345</v>
+        <v>257257</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>87654345</v>
+        <v>257257</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -898,7 +898,7 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1063,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>257257</v>
+        <v>4534623</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>257257</v>
+        <v>4534623</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>257257</v>
+        <v>4534623</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -224,9 +224,6 @@
     <t>12-Mar-2023</t>
   </si>
   <si>
-    <t>Notice290623</t>
-  </si>
-  <si>
     <t>Delhi Value Added Tax Act, 2004</t>
   </si>
   <si>
@@ -248,13 +245,23 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>Deepali Dev</t>
-  </si>
-  <si>
     <t>checks</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
+    <t>Notice300623</t>
+  </si>
+  <si>
+    <t>24-09-2023</t>
+  </si>
+  <si>
+    <t>ABCD</t>
+  </si>
+  <si>
+    <t>Notice256623</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC Mall, Thane
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -263,12 +270,6 @@
   <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>Notice300623</t>
-  </si>
-  <si>
-    <t>24-09-2023</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1063,16 +1064,16 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>4534623</v>
+        <v>432123</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" t="s">
-        <v>68</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>33</v>
@@ -1081,16 +1082,16 @@
         <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" t="s">
         <v>77</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>79</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1108,10 +1109,10 @@
         <v>2023</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1120,10 +1121,10 @@
         <v>39</v>
       </c>
       <c r="AJ2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" t="s">
         <v>70</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1141,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,28 +1188,28 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>4534623</v>
+        <v>432123</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="33">
         <v>6734563</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -1223,7 +1224,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,7 +1272,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>4534623</v>
+        <v>432123</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>
@@ -1281,7 +1282,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -254,22 +254,35 @@
     <t>24-09-2023</t>
   </si>
   <si>
-    <t>ABCD</t>
-  </si>
-  <si>
     <t>Notice256623</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABC Mall, Thane
-</t>
   </si>
   <si>
     <t xml:space="preserve">
 companyadmin@avantis.info</t>
   </si>
   <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Deepali Dev</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -896,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF2" sqref="AF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,7 +942,7 @@
     <col min="27" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="14.85546875" customWidth="1"/>
     <col min="30" max="30" width="12" customWidth="1"/>
-    <col min="31" max="31" width="26" customWidth="1"/>
+    <col min="31" max="31" width="36.140625" customWidth="1"/>
     <col min="32" max="32" width="23" customWidth="1"/>
     <col min="33" max="33" width="17.28515625" customWidth="1"/>
     <col min="34" max="34" width="21.42578125" customWidth="1"/>
@@ -1064,13 +1077,13 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>432123</v>
+        <v>65740</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -1081,17 +1094,17 @@
       <c r="H2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I2" t="s">
-        <v>77</v>
+      <c r="I2" s="31" t="s">
+        <v>80</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1112,7 +1125,10 @@
         <v>68</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>85</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1124,15 +1140,87 @@
         <v>69</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1">
+        <v>34746</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ3" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="ayush.tripathi@tlregtech.in"/>
+    <hyperlink ref="P2" r:id="rId1" display="companyadmin@avantis.info"/>
+    <hyperlink ref="P3" r:id="rId2" display="companyadmin@avantis.info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -255,34 +255,31 @@
   </si>
   <si>
     <t>Notice256623</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+MrSanju Kumar,</t>
+  </si>
+  <si>
+    <t>MrSanju Kumar,</t>
   </si>
   <si>
     <t xml:space="preserve">
 companyadmin@avantis.info</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-Deepali Dev</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t>Deepali Dev</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -911,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1066,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1077,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>65740</v>
+        <v>45345</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -1098,13 +1095,13 @@
         <v>80</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1125,10 +1122,7 @@
         <v>68</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1151,7 +1145,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="1">
-        <v>34746</v>
+        <v>23231</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -1160,7 +1154,7 @@
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
@@ -1169,16 +1163,16 @@
         <v>34</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
@@ -1199,7 +1193,7 @@
         <v>68</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>38</v>
@@ -1229,7 +1223,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1270,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>432123</v>
+        <v>45345</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1312,7 +1306,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,7 +1354,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>432123</v>
+        <v>45345</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -260,26 +260,33 @@
     <t>Others</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
-MrSanju Kumar,</t>
-  </si>
-  <si>
-    <t>MrSanju Kumar,</t>
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>Deepali Dev</t>
   </si>
   <si>
     <t xml:space="preserve">
 companyadmin@avantis.info</t>
   </si>
   <si>
+    <t xml:space="preserve">
+ companyadmin@avantis.info</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC Mall, Thane</t>
   </si>
 </sst>
 </file>
@@ -1066,7 +1073,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>45345</v>
+        <v>234123</v>
       </c>
       <c r="D2" t="s">
         <v>75</v>
@@ -1092,16 +1099,16 @@
         <v>34</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1137,7 +1144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
@@ -1145,7 +1152,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="1">
-        <v>23231</v>
+        <v>65688</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -1163,10 +1170,10 @@
         <v>34</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
@@ -1223,7 +1230,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,7 +1277,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>45345</v>
+        <v>234123</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1306,7 +1313,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,7 +1361,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>45345</v>
+        <v>234123</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -245,9 +245,6 @@
     <t>Test2</t>
   </si>
   <si>
-    <t>checks</t>
-  </si>
-  <si>
     <t>Notice300623</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ABC Mall, Thane</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Debit card</t>
   </si>
 </sst>
 </file>
@@ -1081,13 +1081,13 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>234123</v>
+        <v>34562390</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s">
         <v>67</v>
@@ -1099,16 +1099,16 @@
         <v>34</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1129,7 +1129,7 @@
         <v>68</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1152,16 +1152,16 @@
         <v>66</v>
       </c>
       <c r="C3" s="1">
-        <v>65688</v>
+        <v>5456340</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
@@ -1170,16 +1170,16 @@
         <v>34</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
@@ -1200,7 +1200,7 @@
         <v>68</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>38</v>
@@ -1230,7 +1230,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>234123</v>
+        <v>34562390</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1298,7 +1298,7 @@
         <v>72</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>234123</v>
+        <v>34562390</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>
@@ -1371,7 +1371,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -264,29 +264,22 @@
     <t>Deepali Dev</t>
   </si>
   <si>
+    <t xml:space="preserve"> Debit card</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ABC Mall, Thane</t>
+  </si>
+  <si>
     <t xml:space="preserve">
-companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- companyadmin@avantis.info</t>
+ kantak.bhagyesh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-companyadmin@avantis.info</t>
+ kantak.bhagyesh@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABC Mall, Thane</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Debit card</t>
+ kantak.bhagyesh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -915,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1081,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="C2">
-        <v>34562390</v>
+        <v>7384621</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
@@ -1102,13 +1095,13 @@
         <v>78</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P2" s="35" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1129,7 +1122,7 @@
         <v>68</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1152,7 +1145,7 @@
         <v>66</v>
       </c>
       <c r="C3" s="1">
-        <v>5456340</v>
+        <v>452330</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>74</v>
@@ -1173,13 +1166,13 @@
         <v>79</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
@@ -1200,7 +1193,7 @@
         <v>68</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>38</v>
@@ -1277,7 +1270,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>34562390</v>
+        <v>7384621</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>49</v>
@@ -1292,7 +1285,7 @@
         <v>73</v>
       </c>
       <c r="F2" s="33">
-        <v>6734563</v>
+        <v>23983</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>72</v>
@@ -1312,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1354,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>34562390</v>
+        <v>7384621</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>57</v>
@@ -1371,7 +1364,7 @@
         <v>58</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Courier</t>
   </si>
   <si>
-    <t>Received</t>
-  </si>
-  <si>
     <t>Payment Type</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>15-02-2023</t>
   </si>
   <si>
-    <t>21-jun-2023</t>
-  </si>
-  <si>
     <t>Test test</t>
   </si>
   <si>
@@ -248,44 +242,49 @@
     <t>Notice300623</t>
   </si>
   <si>
-    <t>24-09-2023</t>
-  </si>
-  <si>
     <t>Notice256623</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
+    <t xml:space="preserve"> Debit card</t>
+  </si>
+  <si>
+    <t>ABC Mall, Thane</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 
-Deepali Dev</t>
-  </si>
-  <si>
-    <t>Deepali Dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Debit card</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ABC Mall, Thane</t>
+ Avirat Gaikwad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avirat Gaikwad</t>
   </si>
   <si>
     <t xml:space="preserve">
- kantak.bhagyesh@gmail.com</t>
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- kantak.bhagyesh@gmail.com</t>
+companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- kantak.bhagyesh@gmail.com</t>
+companyadmin@avantis.info</t>
+  </si>
+  <si>
+    <t>Sent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -434,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -519,10 +518,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -908,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>1</v>
@@ -991,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O1" s="21" t="s">
         <v>12</v>
@@ -1042,10 +1046,10 @@
         <v>27</v>
       </c>
       <c r="AE1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF1" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="AF1" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="AG1" s="17" t="s">
         <v>28</v>
@@ -1060,10 +1064,10 @@
         <v>31</v>
       </c>
       <c r="AK1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL1" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="AL1" s="22" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
@@ -1071,19 +1075,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="37">
+        <v>45362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2">
-        <v>7384621</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>33</v>
@@ -1092,16 +1096,16 @@
         <v>34</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="35" t="s">
-        <v>82</v>
+      <c r="P2" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>36</v>
@@ -1119,10 +1123,10 @@
         <v>2023</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1131,30 +1135,33 @@
         <v>39</v>
       </c>
       <c r="AJ2" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="38">
+        <v>45382</v>
+      </c>
+      <c r="AL2" t="s">
         <v>69</v>
       </c>
-      <c r="AL2" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="3" spans="1:38" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1">
-        <v>452330</v>
+        <v>65</v>
+      </c>
+      <c r="C3" s="37">
+        <v>45362</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
@@ -1163,16 +1170,16 @@
         <v>34</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="35" t="s">
-        <v>82</v>
+      <c r="P3" s="34" t="s">
+        <v>79</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
@@ -1190,10 +1197,10 @@
         <v>2023</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>38</v>
@@ -1202,10 +1209,13 @@
         <v>39</v>
       </c>
       <c r="AJ3" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3" s="38">
+        <v>45382</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1247,7 +1257,7 @@
         <v>41</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>42</v>
@@ -1270,28 +1280,28 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>7384621</v>
+        <v>8121340</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="C2" s="36">
+        <v>45098</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F2" s="33">
-        <v>23983</v>
+        <v>139383</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>75</v>
+        <v>70</v>
+      </c>
+      <c r="H2" s="35">
+        <v>45098</v>
       </c>
       <c r="I2" s="33"/>
     </row>
@@ -1305,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,25 +1338,25 @@
         <v>40</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="G1" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>47</v>
@@ -1354,17 +1364,17 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>7384621</v>
+        <v>8121340</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Notice Responses" sheetId="2" r:id="rId2"/>
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="80">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -251,29 +251,18 @@
     <t xml:space="preserve"> Debit card</t>
   </si>
   <si>
-    <t>ABC Mall, Thane</t>
+    <t>Sent</t>
   </si>
   <si>
     <t xml:space="preserve"> 
- Avirat Gaikwad</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avirat Gaikwad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-companyadmin@avantis.info</t>
+Deepali Dev</t>
+  </si>
+  <si>
+    <t>companyadmin@avantis.info</t>
   </si>
   <si>
     <t xml:space="preserve"> 
 companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
-companyadmin@avantis.info</t>
-  </si>
-  <si>
-    <t>Sent</t>
   </si>
 </sst>
 </file>
@@ -433,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,15 +507,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -1078,7 +1068,7 @@
         <v>65</v>
       </c>
       <c r="C2" s="37">
-        <v>45362</v>
+        <v>6931172</v>
       </c>
       <c r="D2" t="s">
         <v>72</v>
@@ -1099,12 +1089,12 @@
         <v>77</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="P2" s="38" t="s">
         <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
@@ -1126,7 +1116,7 @@
         <v>67</v>
       </c>
       <c r="AE2" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AG2" s="6" t="s">
         <v>38</v>
@@ -1137,7 +1127,7 @@
       <c r="AJ2" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AK2" s="38">
+      <c r="AK2" s="36">
         <v>45382</v>
       </c>
       <c r="AL2" t="s">
@@ -1152,7 +1142,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="37">
-        <v>45362</v>
+        <v>6312234</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>72</v>
@@ -1170,16 +1160,16 @@
         <v>34</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>79</v>
+      <c r="P3" s="39" t="s">
+        <v>78</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>36</v>
@@ -1200,7 +1190,7 @@
         <v>67</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AG3" s="6" t="s">
         <v>38</v>
@@ -1211,7 +1201,7 @@
       <c r="AJ3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="AK3" s="38">
+      <c r="AK3" s="36">
         <v>45382</v>
       </c>
       <c r="AL3" s="1" t="s">
@@ -1220,8 +1210,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="companyadmin@avantis.info"/>
-    <hyperlink ref="P3" r:id="rId2" display="companyadmin@avantis.info"/>
+    <hyperlink ref="P2" r:id="rId1" display="fe@bitaconsulting.co.in"/>
+    <hyperlink ref="P3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -1233,7 +1223,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,12 +1270,12 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>8121340</v>
+        <v>6931172</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="36">
+        <v>76</v>
+      </c>
+      <c r="C2" s="35">
         <v>45098</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1295,12 +1285,12 @@
         <v>71</v>
       </c>
       <c r="F2" s="33">
-        <v>139383</v>
+        <v>124508</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="34">
         <v>45098</v>
       </c>
       <c r="I2" s="33"/>
@@ -1316,7 +1306,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1354,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>8121340</v>
+        <v>6931172</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>56</v>
